--- a/3월 스터디 신청 계획서_부울경_1반_김나연.xlsx
+++ b/3월 스터디 신청 계획서_부울경_1반_김나연.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9930" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9930" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="신청서" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.03.01 ~ 2023.03.31 (3月)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 엔지니어링 스터디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,41 +74,11 @@
   </si>
   <si>
     <t>김나연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 엔지니어링 기술 공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.03.08 리눅스
-- 리눅스 기본개념 학습
-- 리눅스 설치 및 환경설정
-- T아카데미 리눅스 강의 : https://tacademy.skplanet.com/live/player/onlineLectureDetail.action?seq=185
-23.03.15~03.22 아파치 카프카
-- 자바 문법 복습 및 심화 학습 진행
-- 아파치 카프카 개념 학습
-- 아파치 카프카 설치 및 실습
-- T아카데미 아파치 카프카 입문:
-https://tacademy.skplanet.com/live/player/onlineLectureDetail.action?seq=183
-22.03.29 아파치 하둡
-- 하둡의 개본개념 학습
-- HDFS, MapReduce, YARN 개념 학습
-- 온라인 자료 및 교재 참고:
-https://sjh836.tistory.com/43
-https://12bme.tistory.com/153
-https://excelsior-cjh.tistory.com/6
-https://m.blog.naver.com/PostView.nhn?blogId=snscho66&amp;logNo=100169518142&amp;proxyReferer=https:%2F%2Fwww.google.com%2F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>■ 신청 □ 미신청
 (신청 시 사용할 메일주소: kny0628n@gmail.com      )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- T아카데미 강의를 중심으로 필요한 선수지식을 학습할 예정
-- 깃허브 주소: https://github.com/nayeonxkim/DE_Study</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,11 +89,41 @@
 부울경 2반 박하윤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2023.05.01 ~ 2023.05.26 (5月)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 엔지니어링 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 팟캐스트 추천 : https://github.com/nayeonxkim/Podcast_Recommender
+- 상권 추천 : https://github.com/DEDEFOOD/FOOD
+- AI 애플리케이션 개발 : https://github.com/stubborngastropod/aws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.05.03 
+팟캐스트 추천) AWS 활용 카프카 실습 진행 결과 발표
+맛집 추천 챗봇) 딥러닝 이론 학습 결과 발표
+AI 애플리케이션 개발) 프로젝트 진행 결과 발표 (유동적)
+23.05.17 아파치 카프카
+팟캐스트 추천) 카프카 활용 유튜브 댓글 실시간 처리 
+맛집 추천 챗봇) 딥러닝 모델로 챗봇 개발
+AI 애플리케이션 개발) 프로젝트 진행 결과 발표 (유동적)
+22.05.31
+팟캐스트 추천) 전체 데이터 파이프라인 완성
+맛집 추천 챗봇) 딥러닝 모델로 챗봇 개발
+AI 애플리케이션 개발) 프로젝트 진행 결과 발표 (유동적)
+프로젝트 진행 상황이 더디거나 더이상 도움이 되지 않는다고 판단될 경우, 자유롭게 데이터 엔지니어링 및 AI 관련 학습 진행 후 발표하기로 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,6 +302,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -315,6 +326,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -336,15 +350,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -353,15 +358,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,116 +667,116 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="18.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>15</v>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" ht="86" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" ht="353" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="353.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
